--- a/apps/features/backlog/desktop/windows/streaming_server/streaming_server.xlsx
+++ b/apps/features/backlog/desktop/windows/streaming_server/streaming_server.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\office\SymlexVPNTestCases\apps\features\backlog\desktop\windows\streaming_server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5D7AF76-8EB6-451A-B34B-D6A72911A451}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC404EDA-C872-420B-8CF9-0372939981B4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="149">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -75,9 +75,6 @@
   </si>
   <si>
     <t>Try to See Local Streaming Content the by connecting the Server No.1 for Streaming Server with Disney+ Content Streamig website</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Feature Name: Check Streaming Server  </t>
   </si>
   <si>
     <t>Website should be run the content from the USA from the Hot Star database</t>
@@ -381,26 +378,6 @@
 4. Tap on login button
 5. Go to server list page
 6. Select no.1 streaming server from streaming server section
-7. Go To  netflix.com
-8. Browse the Website</t>
-  </si>
-  <si>
-    <t>1. go to appstore and install SymlexVPN in the desktop
-2. Open the installed SymlexVPN Application.
-3. Input Password to the password field
-4. Tap on login button
-5. Go to server list page
-6. Select no.1 streaming server from streaming server section
-7. Go To  hulu.com
-8. Browse the Website</t>
-  </si>
-  <si>
-    <t>1. go to appstore and install SymlexVPN in the desktop
-2. Open the installed SymlexVPN Application.
-3. Input Password to the password field
-4. Tap on login button
-5. Go to server list page
-6. Select no.1 streaming server from streaming server section
 7. Go To  disneyplus.com
 8. Browse the Website</t>
   </si>
@@ -686,12 +663,74 @@
 6. connect to any server from streaming server list
 7. check for Introducing temporary network disruptions while streaming</t>
   </si>
+  <si>
+    <t>1. go to appstore and install SymlexVPN in the desktop
+2. Open the installed SymlexVPN Application.
+3. Input Password to the password field
+4. Tap on login button
+5. Go to server list page
+6. Select no.1 streaming server from streaming server section
+7. Go To disneyJunior.com
+8. Browse the Website</t>
+  </si>
+  <si>
+    <t>Try to See Local Streaming Content the by connecting the Server No.1 for Streaming Server with mtv Content Streamig website</t>
+  </si>
+  <si>
+    <t>1. go to appstore and install SymlexVPN in the desktop
+2. Open the installed SymlexVPN Application.
+3. Input Password to the password field
+4. Tap on login button
+5. Go to server list page
+6. Select no.1 streaming server from streaming server section
+7. Go To oneflix.com
+8. Browse the Website</t>
+  </si>
+  <si>
+    <t>Try to See Local Streaming Content the by connecting the Server No.1 for Streaming Server with oneflix Streamig website</t>
+  </si>
+  <si>
+    <t>Try to See Local Streaming Content the by connecting the Server No.2 for Streaming Server with oneFlix Content Streamig website</t>
+  </si>
+  <si>
+    <t>1. go to appstore and install symlexvpn in the desktop
+2. Open the installed SymlexVPN Application.
+3. Input Password to the password field
+4. Tap on login button
+5. Go to server list page
+6. Select no.2 streaming server from streaming server section
+7. Go To oneFlix.com
+8. Browse the Website</t>
+  </si>
+  <si>
+    <t>Test Scenario: streaming server</t>
+  </si>
+  <si>
+    <t>1. go to appstore and install SymlexVPN in the desktop
+2. Open the installed SymlexVPN Application.
+3. Input Password to the password field
+4. Tap on login button
+5. Go to server list page
+6. Select no.1 streaming server from streaming server section
+7. go to  netflix.com
+8. browse the Website</t>
+  </si>
+  <si>
+    <t>1. go to appstore and install SymlexVPN in the desktop
+2. Open the installed SymlexVPN Application.
+3. Input Password to the password field
+4. Tap on login button
+5. Go to server list page
+6. Select no.1 streaming server from streaming server section
+7. go to  hulu.com
+8. browse the Website</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -725,15 +764,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
+      <sz val="18"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -949,7 +995,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -968,10 +1014,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1034,22 +1080,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1891,8 +1937,8 @@
   <dimension ref="A1:Z990"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D41" sqref="D41"/>
+      <pane ySplit="3" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1910,7 +1956,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
-        <v>18</v>
+        <v>146</v>
       </c>
       <c r="B1" s="39"/>
       <c r="C1" s="39"/>
@@ -2019,7 +2065,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>109</v>
+        <v>147</v>
       </c>
       <c r="E4" s="19" t="s">
         <v>11</v>
@@ -2061,7 +2107,7 @@
         <v>14</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>110</v>
+        <v>148</v>
       </c>
       <c r="E5" s="19" t="s">
         <v>15</v>
@@ -2101,10 +2147,10 @@
         <v>17</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F6" s="21" t="s">
         <v>7</v>
@@ -2132,19 +2178,19 @@
     </row>
     <row r="7" spans="1:26" ht="138" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="24" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F7" s="21" t="s">
         <v>7</v>
@@ -2172,19 +2218,19 @@
     </row>
     <row r="8" spans="1:26" ht="137.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" s="26" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F8" s="28" t="s">
         <v>7</v>
@@ -2212,19 +2258,19 @@
     </row>
     <row r="9" spans="1:26" ht="138.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9" s="26" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F9" s="28" t="s">
         <v>7</v>
@@ -2252,19 +2298,19 @@
     </row>
     <row r="10" spans="1:26" ht="139.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10" s="32" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E10" s="32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F10" s="34" t="s">
         <v>7</v>
@@ -2292,19 +2338,19 @@
     </row>
     <row r="11" spans="1:26" ht="141" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B11" s="26" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>31</v>
+        <v>141</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E11" s="35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F11" s="36" t="s">
         <v>7</v>
@@ -2330,21 +2376,21 @@
       <c r="Y11" s="8"/>
       <c r="Z11" s="8"/>
     </row>
-    <row r="12" spans="1:26" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" ht="138.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12" s="32" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F12" s="34" t="s">
         <v>7</v>
@@ -2372,19 +2418,19 @@
     </row>
     <row r="13" spans="1:26" ht="141" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B13" s="32" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>31</v>
+        <v>143</v>
       </c>
       <c r="D13" s="32" t="s">
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="E13" s="32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F13" s="34" t="s">
         <v>7</v>
@@ -2412,16 +2458,16 @@
     </row>
     <row r="14" spans="1:26" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B14" s="32" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E14" s="32" t="s">
         <v>11</v>
@@ -2452,16 +2498,16 @@
     </row>
     <row r="15" spans="1:26" ht="139.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B15" s="32" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D15" s="32" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E15" s="32" t="s">
         <v>11</v>
@@ -2492,16 +2538,16 @@
     </row>
     <row r="16" spans="1:26" ht="145.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B16" s="32" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E16" s="32" t="s">
         <v>11</v>
@@ -2532,19 +2578,19 @@
     </row>
     <row r="17" spans="1:26" ht="139.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B17" s="32" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E17" s="32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F17" s="34" t="s">
         <v>7</v>
@@ -2572,19 +2618,19 @@
     </row>
     <row r="18" spans="1:26" ht="138" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B18" s="32" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E18" s="32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F18" s="34" t="s">
         <v>7</v>
@@ -2612,19 +2658,19 @@
     </row>
     <row r="19" spans="1:26" ht="145.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B19" s="32" t="s">
         <v>13</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D19" s="32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E19" s="32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F19" s="34" t="s">
         <v>7</v>
@@ -2652,19 +2698,19 @@
     </row>
     <row r="20" spans="1:26" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B20" s="32" t="s">
         <v>13</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E20" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F20" s="34" t="s">
         <v>7</v>
@@ -2720,19 +2766,19 @@
     </row>
     <row r="22" spans="1:26" ht="144.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>7</v>
@@ -2760,19 +2806,19 @@
     </row>
     <row r="23" spans="1:26" ht="138" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>51</v>
+        <v>144</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>7</v>
@@ -2800,19 +2846,19 @@
     </row>
     <row r="24" spans="1:26" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>7</v>
@@ -2840,19 +2886,19 @@
     </row>
     <row r="25" spans="1:26" ht="126" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="C25" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="D25" s="5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -2878,19 +2924,19 @@
     </row>
     <row r="26" spans="1:26" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="D26" s="5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -2916,19 +2962,19 @@
     </row>
     <row r="27" spans="1:26" ht="124.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="D27" s="5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
@@ -2954,19 +3000,19 @@
     </row>
     <row r="28" spans="1:26" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="D28" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -2992,19 +3038,19 @@
     </row>
     <row r="29" spans="1:26" ht="134.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
@@ -3030,19 +3076,19 @@
     </row>
     <row r="30" spans="1:26" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
@@ -3068,19 +3114,19 @@
     </row>
     <row r="31" spans="1:26" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
@@ -3106,19 +3152,19 @@
     </row>
     <row r="32" spans="1:26" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
@@ -3144,19 +3190,19 @@
     </row>
     <row r="33" spans="1:26" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
@@ -3182,19 +3228,19 @@
     </row>
     <row r="34" spans="1:26" ht="132" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="D34" s="5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
@@ -3220,19 +3266,19 @@
     </row>
     <row r="35" spans="1:26" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B35" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="D35" s="5" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
@@ -3258,19 +3304,19 @@
     </row>
     <row r="36" spans="1:26" ht="126" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B36" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="D36" s="5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
@@ -3296,19 +3342,19 @@
     </row>
     <row r="37" spans="1:26" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
@@ -3334,19 +3380,19 @@
     </row>
     <row r="38" spans="1:26" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
@@ -3372,19 +3418,19 @@
     </row>
     <row r="39" spans="1:26" ht="126" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
@@ -3410,19 +3456,19 @@
     </row>
     <row r="40" spans="1:26" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
@@ -3448,19 +3494,19 @@
     </row>
     <row r="41" spans="1:26" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>

--- a/apps/features/backlog/desktop/windows/streaming_server/streaming_server.xlsx
+++ b/apps/features/backlog/desktop/windows/streaming_server/streaming_server.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\office\SymlexVPNTestCases\apps\features\backlog\desktop\windows\streaming_server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC404EDA-C872-420B-8CF9-0372939981B4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD8D9B4-B7CC-41BB-9215-6F2C8275C85D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1936,9 +1936,9 @@
   </sheetPr>
   <dimension ref="A1:Z990"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
